--- a/Data/10641_gasoline_prices_by_year_2-22-22.xlsx
+++ b/Data/10641_gasoline_prices_by_year_2-22-22.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10520"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavinsbigmacpro/Desktop/Senior Project/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavinsbigmacpro/Desktop/Senior Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7466CFE-585F-C743-97C8-9EF3072D3594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76A5F98-98C1-514B-8F74-21F962297F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26760" windowHeight="18000" tabRatio="733" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Year</t>
   </si>
@@ -51,14 +51,24 @@
   <si>
     <t>Gasoline Price (2020 $/gallon)</t>
   </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>Full Gas Tank Cost (2020 $/gallon)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -714,7 +724,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -762,6 +772,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1225,1024 +1239,1350 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DD6EB7-1F2F-B740-B962-A73F63958440}">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D72"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="21"/>
+    <col min="2" max="2" width="20.33203125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+      <c r="E1" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="21">
         <v>1950</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="22">
         <v>0.26800000000000002</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="22">
         <v>10.89</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="22">
         <v>2.9185200000000004</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+      <c r="E2" s="22">
+        <f>D2 * 15</f>
+        <v>43.777800000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="21">
         <v>1951</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="22">
         <v>0.27200000000000002</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="22">
         <v>9.9700000000000006</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="22">
         <v>2.7118400000000005</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+      <c r="E3" s="22">
+        <f t="shared" ref="E3:E66" si="0">D3 * 15</f>
+        <v>40.677600000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="21">
         <v>1952</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="22">
         <v>0.27400000000000002</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="22">
         <v>9.7799999999999994</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="22">
         <v>2.6797200000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+      <c r="E4" s="22">
+        <f t="shared" si="0"/>
+        <v>40.195799999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="21">
         <v>1953</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="22">
         <v>0.28699999999999998</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="22">
         <v>9.67</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="22">
         <v>2.7752899999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+      <c r="E5" s="22">
+        <f t="shared" si="0"/>
+        <v>41.629349999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="21">
         <v>1954</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="22">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="22">
         <v>9.6</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="22">
         <v>2.7839999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+      <c r="E6" s="22">
+        <f t="shared" si="0"/>
+        <v>41.76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="21">
         <v>1955</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="22">
         <v>0.29099999999999998</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="22">
         <v>9.67</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="22">
         <v>2.8139699999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+      <c r="E7" s="22">
+        <f t="shared" si="0"/>
+        <v>42.20955</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="21">
         <v>1956</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="22">
         <v>0.29899999999999999</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="22">
         <v>9.56</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="22">
         <v>2.8584399999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
+      <c r="E8" s="22">
+        <f t="shared" si="0"/>
+        <v>42.876599999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="21">
         <v>1957</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="22">
         <v>0.31</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="22">
         <v>9.2200000000000006</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="22">
         <v>2.8582000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
+      <c r="E9" s="22">
+        <f t="shared" si="0"/>
+        <v>42.873000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="21">
         <v>1958</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="22">
         <v>0.30399999999999999</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="22">
         <v>8.93</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="22">
         <v>2.7147199999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
+      <c r="E10" s="22">
+        <f t="shared" si="0"/>
+        <v>40.720799999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="21">
         <v>1959</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="22">
         <v>0.30499999999999999</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="22">
         <v>8.9</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="22">
         <v>2.7145000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
+      <c r="E11" s="22">
+        <f t="shared" si="0"/>
+        <v>40.717500000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="21">
         <v>1960</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="22">
         <v>0.311</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="22">
         <v>8.75</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="22">
         <v>2.7212499999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
+      <c r="E12" s="22">
+        <f t="shared" si="0"/>
+        <v>40.818750000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="21">
         <v>1961</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="22">
         <v>0.308</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="22">
         <v>8.66</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="22">
         <v>2.6672799999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
+      <c r="E13" s="22">
+        <f t="shared" si="0"/>
+        <v>40.0092</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="21">
         <v>1962</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="22">
         <v>0.30599999999999999</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="22">
         <v>8.5500000000000007</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="22">
         <v>2.6163000000000003</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
+      <c r="E14" s="22">
+        <f t="shared" si="0"/>
+        <v>39.244500000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="21">
         <v>1963</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="22">
         <v>0.30399999999999999</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="22">
         <v>8.4600000000000009</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="22">
         <v>2.5718400000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
+      <c r="E15" s="22">
+        <f t="shared" si="0"/>
+        <v>38.577600000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="21">
         <v>1964</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="22">
         <v>0.30399999999999999</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="22">
         <v>8.35</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="22">
         <v>2.5383999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
+      <c r="E16" s="22">
+        <f t="shared" si="0"/>
+        <v>38.075999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="21">
         <v>1965</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="22">
         <v>0.312</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="22">
         <v>8.2200000000000006</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="22">
         <v>2.5646400000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
+      <c r="E17" s="22">
+        <f t="shared" si="0"/>
+        <v>38.469600000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="21">
         <v>1966</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="22">
         <v>0.32100000000000001</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="22">
         <v>7.99</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="22">
         <v>2.5647900000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
+      <c r="E18" s="22">
+        <f t="shared" si="0"/>
+        <v>38.471850000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="21">
         <v>1967</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="22">
         <v>0.33200000000000002</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="22">
         <v>7.77</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="22">
         <v>2.5796399999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
+      <c r="E19" s="22">
+        <f t="shared" si="0"/>
+        <v>38.694600000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="21">
         <v>1968</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="22">
         <v>0.33700000000000002</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="22">
         <v>7.48</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="22">
         <v>2.5207600000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
+      <c r="E20" s="22">
+        <f t="shared" si="0"/>
+        <v>37.811399999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="21">
         <v>1969</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="22">
         <v>0.34799999999999998</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="22">
         <v>7.09</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="22">
         <v>2.46732</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
+      <c r="E21" s="22">
+        <f t="shared" si="0"/>
+        <v>37.009799999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="21">
         <v>1970</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="22">
         <v>0.35699999999999998</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="22">
         <v>6.69</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="22">
         <v>2.3883299999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
+      <c r="E22" s="22">
+        <f t="shared" si="0"/>
+        <v>35.824950000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="21">
         <v>1971</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="22">
         <v>0.36399999999999999</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="22">
         <v>6.4</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="22">
         <v>2.3296000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
+      <c r="E23" s="22">
+        <f t="shared" si="0"/>
+        <v>34.944000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="21">
         <v>1972</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="22">
         <v>0.36099999999999999</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="22">
         <v>6.2</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="22">
         <v>2.2382</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
+      <c r="E24" s="22">
+        <f t="shared" si="0"/>
+        <v>33.573</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="21">
         <v>1973</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="22">
         <v>0.38800000000000001</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="22">
         <v>5.88</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="22">
         <v>2.2814399999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
+      <c r="E25" s="22">
+        <f t="shared" si="0"/>
+        <v>34.221599999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="21">
         <v>1974</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="22">
         <v>0.53200000000000003</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="22">
         <v>5.31</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="22">
         <v>2.8249200000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
+      <c r="E26" s="22">
+        <f t="shared" si="0"/>
+        <v>42.373800000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="21">
         <v>1975</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="22">
         <v>0.56699999999999995</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="22">
         <v>4.8499999999999996</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="22">
         <v>2.7499499999999997</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
+      <c r="E27" s="22">
+        <f t="shared" si="0"/>
+        <v>41.249249999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="21">
         <v>1976</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="22">
         <v>0.61399999999999999</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="22">
         <v>4.57</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="22">
         <v>2.8059799999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
+      <c r="E28" s="22">
+        <f t="shared" si="0"/>
+        <v>42.089700000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="21">
         <v>1977</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="22">
         <v>0.65600000000000003</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="22">
         <v>4.28</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="22">
         <v>2.8076800000000004</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
+      <c r="E29" s="22">
+        <f t="shared" si="0"/>
+        <v>42.115200000000009</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="21">
         <v>1978</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="22">
         <v>0.67</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="22">
         <v>4</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="22">
         <v>2.68</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
+      <c r="E30" s="22">
+        <f t="shared" si="0"/>
+        <v>40.200000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="21">
         <v>1979</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="22">
         <v>0.90300000000000002</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="22">
         <v>3.61</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="22">
         <v>3.25983</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
+      <c r="E31" s="22">
+        <f t="shared" si="0"/>
+        <v>48.897449999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="21">
         <v>1980</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="22">
         <v>1.2450000000000001</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="22">
         <v>3.16</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="22">
         <v>3.9342000000000006</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
+      <c r="E32" s="22">
+        <f t="shared" si="0"/>
+        <v>59.013000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="21">
         <v>1981</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="22">
         <v>1.3779999999999999</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="22">
         <v>2.87</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="22">
         <v>3.95486</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
+      <c r="E33" s="22">
+        <f t="shared" si="0"/>
+        <v>59.322900000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="21">
         <v>1982</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="22">
         <v>1.296</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="22">
         <v>2.69</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="22">
         <v>3.48624</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
+      <c r="E34" s="22">
+        <f t="shared" si="0"/>
+        <v>52.293599999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="21">
         <v>1983</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="22">
         <v>1.2410000000000001</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="22">
         <v>2.6</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="22">
         <v>3.2266000000000004</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
+      <c r="E35" s="22">
+        <f t="shared" si="0"/>
+        <v>48.399000000000008</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="21">
         <v>1984</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="22">
         <v>1.212</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="22">
         <v>2.5</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="22">
         <v>3.03</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
+      <c r="E36" s="22">
+        <f t="shared" si="0"/>
+        <v>45.449999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="21">
         <v>1985</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="22">
         <v>1.202</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="22">
         <v>2.41</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="22">
         <v>2.89682</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
+      <c r="E37" s="22">
+        <f t="shared" si="0"/>
+        <v>43.452300000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="21">
         <v>1986</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="22">
         <v>0.92700000000000005</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="22">
         <v>2.37</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="22">
         <v>2.19699</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39">
+      <c r="E38" s="22">
+        <f t="shared" si="0"/>
+        <v>32.95485</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="21">
         <v>1987</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="22">
         <v>0.94799999999999995</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="22">
         <v>2.2799999999999998</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="22">
         <v>2.1614399999999998</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40">
+      <c r="E39" s="22">
+        <f t="shared" si="0"/>
+        <v>32.421599999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="21">
         <v>1988</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="22">
         <v>0.94599999999999995</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="22">
         <v>2.0811999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41">
+      <c r="E40" s="22">
+        <f t="shared" si="0"/>
+        <v>31.218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="21">
         <v>1989</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="22">
         <v>1.022</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="22">
         <v>2.08</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="22">
         <v>2.1257600000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42">
+      <c r="E41" s="22">
+        <f t="shared" si="0"/>
+        <v>31.886400000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="21">
         <v>1990</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="22">
         <v>1.1639999999999999</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="22">
         <v>2</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="22">
         <v>2.3279999999999998</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43">
+      <c r="E42" s="22">
+        <f t="shared" si="0"/>
+        <v>34.919999999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="21">
         <v>1991</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="22">
         <v>1.1399999999999999</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="22">
         <v>1.9</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="22">
         <v>2.1659999999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44">
+      <c r="E43" s="22">
+        <f t="shared" si="0"/>
+        <v>32.49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="21">
         <v>1992</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="22">
         <v>1.127</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="22">
         <v>1.85</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="22">
         <v>2.0849500000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45">
+      <c r="E44" s="22">
+        <f t="shared" si="0"/>
+        <v>31.274250000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="21">
         <v>1993</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="22">
         <v>1.1080000000000001</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="22">
         <v>1.79</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="22">
         <v>1.9833200000000002</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46">
+      <c r="E45" s="22">
+        <f t="shared" si="0"/>
+        <v>29.749800000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="21">
         <v>1994</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="22">
         <v>1.1120000000000001</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="22">
         <v>1.75</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="22">
         <v>1.9460000000000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47">
+      <c r="E46" s="22">
+        <f t="shared" si="0"/>
+        <v>29.19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="21">
         <v>1995</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="22">
         <v>1.147</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="22">
         <v>1.7</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="22">
         <v>1.9499</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48">
+      <c r="E47" s="22">
+        <f t="shared" si="0"/>
+        <v>29.2485</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="21">
         <v>1996</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="22">
         <v>1.2310000000000001</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="22">
         <v>1.65</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="22">
         <v>2.0311500000000002</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49">
+      <c r="E48" s="22">
+        <f t="shared" si="0"/>
+        <v>30.467250000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="21">
         <v>1997</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="22">
         <v>1.234</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="22">
         <v>1.61</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="22">
         <v>1.9867400000000002</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50">
+      <c r="E49" s="22">
+        <f t="shared" si="0"/>
+        <v>29.801100000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="21">
         <v>1998</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="22">
         <v>1.0589999999999999</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="22">
         <v>1.59</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="22">
         <v>1.68381</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51">
+      <c r="E50" s="22">
+        <f t="shared" si="0"/>
+        <v>25.257149999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="21">
         <v>1999</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="22">
         <v>1.165</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="22">
         <v>1.55</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="22">
         <v>1.8057500000000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52">
+      <c r="E51" s="22">
+        <f t="shared" si="0"/>
+        <v>27.086250000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="21">
         <v>2000</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="22">
         <v>1.51</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="22">
         <v>1.51</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="22">
         <v>2.2801</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53">
+      <c r="E52" s="22">
+        <f t="shared" si="0"/>
+        <v>34.201500000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="21">
         <v>2001</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="22">
         <v>1.4610000000000001</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="22">
         <v>1.45</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="22">
         <v>2.1184500000000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54">
+      <c r="E53" s="22">
+        <f t="shared" si="0"/>
+        <v>31.776750000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="21">
         <v>2002</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="22">
         <v>1.3580000000000001</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="22">
         <v>1.44</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="22">
         <v>1.9555200000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55">
+      <c r="E54" s="22">
+        <f t="shared" si="0"/>
+        <v>29.332800000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="21">
         <v>2003</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="22">
         <v>1.591</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="22">
         <v>1.41</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="22">
         <v>2.2433099999999997</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56">
+      <c r="E55" s="22">
+        <f t="shared" si="0"/>
+        <v>33.649649999999994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="21">
         <v>2004</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="22">
         <v>1.88</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="22">
         <v>1.36</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="22">
         <v>2.5568</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57">
+      <c r="E56" s="22">
+        <f t="shared" si="0"/>
+        <v>38.351999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="21">
         <v>2005</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="22">
         <v>2.2949999999999999</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="22">
         <v>1.33</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="22">
         <v>3.0523500000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58">
+      <c r="E57" s="22">
+        <f t="shared" si="0"/>
+        <v>45.785250000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="21">
         <v>2006</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="22">
         <v>2.589</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="22">
         <v>1.27</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="22">
         <v>3.28803</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59">
+      <c r="E58" s="22">
+        <f t="shared" si="0"/>
+        <v>49.320450000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="21">
         <v>2007</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="22">
         <v>2.8010000000000002</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="22">
         <v>1.24</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="22">
         <v>3.4732400000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60">
+      <c r="E59" s="22">
+        <f t="shared" si="0"/>
+        <v>52.098600000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="21">
         <v>2008</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="22">
         <v>3.266</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="22">
         <v>1.19</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="22">
         <v>3.8865399999999997</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61">
+      <c r="E60" s="22">
+        <f t="shared" si="0"/>
+        <v>58.298099999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="21">
         <v>2009</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="22">
         <v>2.35</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="22">
         <v>1.21</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="22">
         <v>2.8435000000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62">
+      <c r="E61" s="22">
+        <f t="shared" si="0"/>
+        <v>42.652500000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="21">
         <v>2010</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="22">
         <v>2.7879999999999998</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="22">
         <v>1.18</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="22">
         <v>3.2898399999999994</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63">
+      <c r="E62" s="22">
+        <f t="shared" si="0"/>
+        <v>49.347599999999993</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="21">
         <v>2011</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="22">
         <v>3.5270000000000001</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="22">
         <v>1.1399999999999999</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="22">
         <v>4.0207800000000002</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64">
+      <c r="E63" s="22">
+        <f t="shared" si="0"/>
+        <v>60.311700000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="21">
         <v>2012</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="22">
         <v>3.6440000000000001</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="22">
         <v>1.1200000000000001</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="22">
         <v>4.0812800000000005</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65">
+      <c r="E64" s="22">
+        <f t="shared" si="0"/>
+        <v>61.219200000000008</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="21">
         <v>2013</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="22">
         <v>3.5259999999999998</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="22">
         <v>1.1100000000000001</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="22">
         <v>3.9138600000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66">
+      <c r="E65" s="22">
+        <f t="shared" si="0"/>
+        <v>58.707900000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="21">
         <v>2014</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="22">
         <v>3.367</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="22">
         <v>1.08</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="22">
         <v>3.6363600000000003</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67">
+      <c r="E66" s="22">
+        <f t="shared" si="0"/>
+        <v>54.545400000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="21">
         <v>2015</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="22">
         <v>2.448</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="22">
         <v>1.0900000000000001</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="22">
         <v>2.66832</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68">
+      <c r="E67" s="22">
+        <f t="shared" ref="E67:E74" si="1">D67 * 15</f>
+        <v>40.024799999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="21">
         <v>2016</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="22">
         <v>2.1419999999999999</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="22">
         <v>1.07</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="22">
         <v>2.2919399999999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69">
+      <c r="E68" s="22">
+        <f t="shared" si="1"/>
+        <v>34.379100000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="21">
         <v>2017</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="22">
         <v>2.4079999999999999</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="22">
         <v>1.05</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="22">
         <v>2.5284</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70">
+      <c r="E69" s="22">
+        <f t="shared" si="1"/>
+        <v>37.926000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="21">
         <v>2018</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="22">
         <v>2.7349999999999999</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="22">
         <v>1.03</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="22">
         <v>2.7349999999999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71">
+      <c r="E70" s="22">
+        <f t="shared" si="1"/>
+        <v>41.024999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="21">
         <v>2019</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="22">
         <v>2.64</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="22">
         <v>1.01</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="22">
         <v>2.6664000000000003</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72">
+      <c r="E71" s="22">
+        <f t="shared" si="1"/>
+        <v>39.996000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="21">
         <v>2020</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="22">
         <v>2.17</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="22">
         <v>1</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="22">
         <v>2.17</v>
+      </c>
+      <c r="E72" s="22">
+        <f t="shared" si="1"/>
+        <v>32.549999999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="22">
+        <v>3.01</v>
+      </c>
+      <c r="C73" s="22">
+        <v>0.97</v>
+      </c>
+      <c r="D73" s="22">
+        <v>3.01</v>
+      </c>
+      <c r="E73" s="22">
+        <f t="shared" si="1"/>
+        <v>45.15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="22">
+        <v>4.96</v>
+      </c>
+      <c r="C74" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="D74" s="22">
+        <v>4.96</v>
+      </c>
+      <c r="E74" s="22">
+        <f t="shared" si="1"/>
+        <v>74.400000000000006</v>
       </c>
     </row>
   </sheetData>
